--- a/docs/assets/disciplinas/LOQ4057.xlsx
+++ b/docs/assets/disciplinas/LOQ4057.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EB-7,EQD-7,EQN-8</t>
+    <t>EB-8,EQD-7,EQN-8</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/docs/assets/disciplinas/LOQ4057.xlsx
+++ b/docs/assets/disciplinas/LOQ4057.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentação e aplicação dos fundamentos teóricos das operações unitárias envolvendo transferência de calor e massa. Os tópicos abordados constituem aplicação prática dos conhecimentos desenvolvidos ao longo da disciplina fenômenos de transporte III e são de grande importância para estudos posteriores de processos químicos industriais.</t>
+    <t>5817372 - Simone de Fátima Medeiros Sampaio</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5817372 - Simone de Fátima Medeiros Sampaio</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1.Destilação 2.Absorção3.Extração líquido-líquido4.Adsorção5.Cristalização</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>) Destilação: equilíbrio líquido-vapor; Separação simples: Destilação flash e Destilação Diferencial; Destilação contínua (Retificação): Método de McCabe-Thiele; Eficiência de estágio e eficiência global; Destilação multicomponentes – método FUG;2) Absorção e dessorção: tipos de torres; Solubilidade de gases em líquidos; Operações em paralelo e contracorrente; Taxas de transferência de massa; Operações multiestágios em contracorrente;3) Extração líquido-líquido: equilíbrio líquido-líquido; Extração em estágio único e em múltiplos estágios; Coeficientes de distribuição;4) Adsorção: fundamentos; Operações em único estágio e em contato contínuo. 5) Cristalização: Caracterização de partículas e Projeto de Cristalizadores.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,33 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aplicação de 2 provas, P1 e P2.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A média do período será MP = (P1+P2)/2. Alunos com média final igual ou superior a 5,0 estarão aprovados, desde que tenham frequência mínima de 70% (regimental). Alunos com média inferior a 3,0 e/ou frequência inferior a 70% estarão reprovados (regimental). Alunos com média superior ou igual a 3,0 e inferior a 5,0 e que tenham frequência mínima de 70% serão submetidos ao período de recuperação (regimental).</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A média final após a recuperação para a disciplina será a média aritmética entre a média do período e a nota da recuperação. Durante o período de recuperação, poderá ser marcada uma aula com a finalidade de sanar dúvidas e/ou revisar conceitos fundamentais. Em data posterior os alunos serão submetidos a uma prova de recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1)COULSON, J. M.; RICHARDSON; J.F. Chemical Engineering. v. 2: Particle Technology e Separation Processes. 5ed. Amsterdan: Butterworth Heinemann, 1229p. 2005;
-2)COULSON &amp; Richardson's Chemical Engineering: chemical engineering design by R.K. Sinnott. 6ed. Amsterdam: Elsevier Butterworth Heinemann, 895p. 2004;
-3)COUPER, J. R.; PENNEY, W. R.; FAIR, J. R.; W.; Stanley. M. Chemical Process Equipment: Selection and Design. 2ed. Amsterdam: Elsevier, 814p. 2005;
-4)FOUST, A. S.; WENZEL, L. A.; CLUMP, C. W.; MAUS, L.; ANDERSEN, L. B. 2ed. Princípios das operações unitárias. Rio de Janeiro: Guanabara Dois/LTC, 670p. 2008;
-5)GEANKOPLIS, C. J. Transport Processes and Separation Process Principles. 4ed. New York: Prentice Hall, 1026p. 2010;
-6)MCCABE, W. L.; SMITH, J. C.; HARRIOT, P. Unit operations of chemical engineering. 7ed. Boston: McGraw-Hill, 1140 p. 2005;
-7)PERRY's chemical engineers handbook. Editor in Chief Don W. Green; Late Editor Robert H. Perry New York: McGraw-Hill, 2008.
-8)SEADER, J. D; HENLEY, E. J. Separation Process Principles. 2ed. Hoboken, N.J: Wiley, 756p. 2006.
-9)TREYBAL, R. E. Mass-Transfer Operations. 3ed. Auckland: McGraw-Hill, 784p. 1980.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -504,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -635,34 +618,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -676,77 +662,66 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4057.xlsx
+++ b/docs/assets/disciplinas/LOQ4057.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentação e aplicação dos fundamentos teóricos das operações unitárias envolvendo transferência de calor e massa. Os tópicos abordados constituem aplicação prática dos conhecimentos desenvolvidos ao longo da disciplina fenômenos de transporte III e são de grande importância para estudos posteriores de processos químicos industriais.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Introduction and application of the theoretical fundamentals of unit operations involving heat and mass transfer. The main topics covered in this course include practical application of the knowledge acquired during the attendance of Phenomena of Transportation III course and will have a great importance for further studies about industrial chemical processes</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5817372 - Simone de Fátima Medeiros Sampaio</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Introduction and application of the theoretical fundamentals of unit operations involving heat and mass transfer. The main topics covered in this course include practical application of the knowledge acquired during the attendance of Phenomena of Transportation III course and will have a great importance for further studies about industrial chemical processes</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1.Destilação 2.Absorção3.Extração líquido-líquido4.Adsorção5.Cristalização</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>) Destilação: equilíbrio líquido-vapor; Separação simples: Destilação flash e Destilação Diferencial; Destilação contínua (Retificação): Método de McCabe-Thiele; Eficiência de estágio e eficiência global; Destilação multicomponentes – método FUG;2) Absorção e dessorção: tipos de torres; Solubilidade de gases em líquidos; Operações em paralelo e contracorrente; Taxas de transferência de massa; Operações multiestágios em contracorrente;3) Extração líquido-líquido: equilíbrio líquido-líquido; Extração em estágio único e em múltiplos estágios; Coeficientes de distribuição;4) Adsorção: fundamentos; Operações em único estágio e em contato contínuo. 5) Cristalização: Caracterização de partículas e Projeto de Cristalizadores.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,33 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aplicação de 2 provas, P1 e P2.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aplicação de 2 provas, P1 e P2.</t>
+    <t>A média do período será MP = (P1+P2)/2. Alunos com média final igual ou superior a 5,0 estarão aprovados, desde que tenham frequência mínima de 70% (regimental). Alunos com média inferior a 3,0 e/ou frequência inferior a 70% estarão reprovados (regimental). Alunos com média superior ou igual a 3,0 e inferior a 5,0 e que tenham frequência mínima de 70% serão submetidos ao período de recuperação (regimental).</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A média do período será MP = (P1+P2)/2. Alunos com média final igual ou superior a 5,0 estarão aprovados, desde que tenham frequência mínima de 70% (regimental). Alunos com média inferior a 3,0 e/ou frequência inferior a 70% estarão reprovados (regimental). Alunos com média superior ou igual a 3,0 e inferior a 5,0 e que tenham frequência mínima de 70% serão submetidos ao período de recuperação (regimental).</t>
+    <t>A média final após a recuperação para a disciplina será a média aritmética entre a média do período e a nota da recuperação. Durante o período de recuperação, poderá ser marcada uma aula com a finalidade de sanar dúvidas e/ou revisar conceitos fundamentais. Em data posterior os alunos serão submetidos a uma prova de recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A média final após a recuperação para a disciplina será a média aritmética entre a média do período e a nota da recuperação. Durante o período de recuperação, poderá ser marcada uma aula com a finalidade de sanar dúvidas e/ou revisar conceitos fundamentais. Em data posterior os alunos serão submetidos a uma prova de recuperação.</t>
+    <t>1)COULSON, J. M.; RICHARDSON; J.F. Chemical Engineering. v. 2: Particle Technology e Separation Processes. 5ed. Amsterdan: Butterworth Heinemann, 1229p. 2005;
+2)COULSON &amp; Richardson's Chemical Engineering: chemical engineering design by R.K. Sinnott. 6ed. Amsterdam: Elsevier Butterworth Heinemann, 895p. 2004;
+3)COUPER, J. R.; PENNEY, W. R.; FAIR, J. R.; W.; Stanley. M. Chemical Process Equipment: Selection and Design. 2ed. Amsterdam: Elsevier, 814p. 2005;
+4)FOUST, A. S.; WENZEL, L. A.; CLUMP, C. W.; MAUS, L.; ANDERSEN, L. B. 2ed. Princípios das operações unitárias. Rio de Janeiro: Guanabara Dois/LTC, 670p. 2008;
+5)GEANKOPLIS, C. J. Transport Processes and Separation Process Principles. 4ed. New York: Prentice Hall, 1026p. 2010;
+6)MCCABE, W. L.; SMITH, J. C.; HARRIOT, P. Unit operations of chemical engineering. 7ed. Boston: McGraw-Hill, 1140 p. 2005;
+7)PERRY's chemical engineers handbook. Editor in Chief Don W. Green; Late Editor Robert H. Perry New York: McGraw-Hill, 2008.
+8)SEADER, J. D; HENLEY, E. J. Separation Process Principles. 2ed. Hoboken, N.J: Wiley, 756p. 2006.
+9)TREYBAL, R. E. Mass-Transfer Operations. 3ed. Auckland: McGraw-Hill, 784p. 1980.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +504,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +635,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +676,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
